--- a/data/trans_bre/P19C03-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P19C03-Estudios-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>2.314889197484127</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>-1.060062403954454</v>
+        <v>-1.060062403954451</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06767597380746163</v>
@@ -649,7 +649,7 @@
         <v>0.1157074815220267</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>-0.06793250788106489</v>
+        <v>-0.06793250788106474</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.950084314759718</v>
+        <v>-2.951439998120635</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.3555647477199873</v>
+        <v>0.2331804452347162</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-2.237812064198288</v>
+        <v>-2.70995037648488</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-5.47609471025589</v>
+        <v>-4.928357633554846</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.1215772856864044</v>
+        <v>-0.123689625896035</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01930658029363983</v>
+        <v>0.01294442345283915</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.09684718297958461</v>
+        <v>-0.1201770208852586</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.2916561689533899</v>
+        <v>-0.273987089942308</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>5.505810032405019</v>
+        <v>5.452792568838317</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>8.294073321636102</v>
+        <v>8.232821397301326</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7.648703818186737</v>
+        <v>7.526762926671979</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>2.351224739931585</v>
+        <v>2.482957320056856</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.2913775606839946</v>
+        <v>0.2874360162044161</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.4799816557800555</v>
+        <v>0.4702181377178918</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4684181878162048</v>
+        <v>0.4271384382961093</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.1808818281837582</v>
+        <v>0.1899516110009982</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>-1.364907413171929</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>-1.740553683945037</v>
+        <v>-1.740553683945034</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02891300513066205</v>
@@ -749,7 +749,7 @@
         <v>-0.04500751389178852</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>-0.08264142486075969</v>
+        <v>-0.08264142486075957</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-2.630720317850996</v>
+        <v>-2.528233481562859</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-4.29122935975207</v>
+        <v>-4.099055533433763</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-4.507426040712965</v>
+        <v>-4.279158507930025</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-4.251290110203876</v>
+        <v>-4.288507138156768</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.06458868661939751</v>
+        <v>-0.06503190717394849</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.1193113146949412</v>
+        <v>-0.1152596460340998</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.1413189482809171</v>
+        <v>-0.1331731879574664</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.18670585068579</v>
+        <v>-0.1889496554820184</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>4.566007402494437</v>
+        <v>4.565357917432907</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>2.751905468717934</v>
+        <v>2.307677943127188</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1.889091922358579</v>
+        <v>2.246225170138601</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.7763575184864879</v>
+        <v>1.114501615259156</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.1291908029125508</v>
+        <v>0.1235417570896997</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.08645571638211291</v>
+        <v>0.07060254282934175</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.06494817200833956</v>
+        <v>0.0787774795661773</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.04133776136280377</v>
+        <v>0.05907872522473187</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-6.519594402689191</v>
+        <v>-6.409429907192507</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-12.55997418367345</v>
+        <v>-12.63960331388006</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-8.465660966610812</v>
+        <v>-8.633665468252174</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.3104307290307994</v>
+        <v>-0.9898662046528324</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.189178892850207</v>
+        <v>-0.1887547742648577</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.350148690747093</v>
+        <v>-0.3524793783054141</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.3012712645574838</v>
+        <v>-0.3088669605663912</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.02108105481744738</v>
+        <v>-0.05419267908375971</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>5.681202859386772</v>
+        <v>6.178482904813198</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.7981562854097848</v>
+        <v>0.7907696554048043</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.563992344031918</v>
+        <v>1.961903477525161</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7.862012555867848</v>
+        <v>7.325114290355704</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.1985094538210282</v>
+        <v>0.214017996100624</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.03104735277467632</v>
+        <v>0.03235400638370656</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1172476333393894</v>
+        <v>0.09853709763724346</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.5616848478541492</v>
+        <v>0.5383425114854765</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>-1.403204611250264</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-0.8294571508803972</v>
+        <v>-0.8294571508804</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.002255179045960169</v>
@@ -949,7 +949,7 @@
         <v>-0.05081813801736862</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.04329143983080828</v>
+        <v>-0.04329143983080842</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-2.455200068826193</v>
+        <v>-2.518116135607582</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-3.2430192931818</v>
+        <v>-3.732817089557797</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-3.878725891576856</v>
+        <v>-3.819958507089609</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-2.763563200428906</v>
+        <v>-2.796721650539614</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.07389770873298646</v>
+        <v>-0.07489612922722605</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.1032169941361773</v>
+        <v>-0.1195327903168728</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.1362444304945359</v>
+        <v>-0.1296513712425298</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.1350074106514269</v>
+        <v>-0.137584535497961</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>2.697841898796507</v>
+        <v>2.868631519281818</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>1.569307494084782</v>
+        <v>1.067003874735141</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1.11744953539276</v>
+        <v>1.377021874319232</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>1.16927330436214</v>
+        <v>1.226996635650557</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.0891449087951158</v>
+        <v>0.09677956237575865</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.05514033689094334</v>
+        <v>0.03683130126977564</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.04540359942794982</v>
+        <v>0.05306331049948368</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.06934109804738781</v>
+        <v>0.06611669719547128</v>
       </c>
     </row>
     <row r="16">
